--- a/bp-start.xlsx
+++ b/bp-start.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8212CD98-E93B-401A-96CC-5B81DB128F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1892AE5B-552C-4210-BC00-849D4C2909A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{316BC099-8034-474B-B2B7-0AAC981BCD95}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{316BC099-8034-474B-B2B7-0AAC981BCD95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -432,11 +432,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F680B4-3E51-4AB9-AB6A-D826AD9B744A}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -457,11 +457,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63043E7-7A10-4A2E-BA1C-809B89C0A43B}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -2531,7 +2529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
